--- a/UnitOps/HFC_copy.xlsx
+++ b/UnitOps/HFC_copy.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Documents\Python Scripts\CBE\CBE\UnitOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PyScripts\CBE\CBE\UnitOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F4970-0D79-4DBE-8D6F-A03FF3890198}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A80B0FC-F767-450A-ABCD-28E56FCA611F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{75FD5960-3AE6-4943-AE2D-85B1A912C812}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{75FD5960-3AE6-4943-AE2D-85B1A912C812}"/>
   </bookViews>
   <sheets>
     <sheet name="cs1" sheetId="1" r:id="rId1"/>
     <sheet name="cs2" sheetId="2" r:id="rId2"/>
     <sheet name="cs3-150" sheetId="3" r:id="rId3"/>
-    <sheet name="cs3-110" sheetId="4" r:id="rId4"/>
-    <sheet name="cs3-185" sheetId="5" r:id="rId5"/>
-    <sheet name="cs4-150" sheetId="6" r:id="rId6"/>
+    <sheet name="cs4-150" sheetId="6" r:id="rId4"/>
+    <sheet name="cs3-110" sheetId="4" r:id="rId5"/>
+    <sheet name="cs3-180" sheetId="5" r:id="rId6"/>
     <sheet name="cs4-110" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -434,13 +434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9075151C-C1DD-45FD-940E-490D0DD28337}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>138</v>
       </c>
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>138</v>
       </c>
@@ -506,8 +506,11 @@
       <c r="F3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>136</v>
       </c>
@@ -527,8 +530,11 @@
       <c r="F4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>135</v>
       </c>
@@ -548,8 +554,11 @@
       <c r="F5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>135</v>
       </c>
@@ -569,8 +578,11 @@
       <c r="F6">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>134</v>
       </c>
@@ -590,8 +602,11 @@
       <c r="F7">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>134</v>
       </c>
@@ -611,8 +626,11 @@
       <c r="F8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>132</v>
       </c>
@@ -632,8 +650,11 @@
       <c r="F9" s="3">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>147</v>
       </c>
@@ -652,8 +673,11 @@
       <c r="F10">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>147</v>
       </c>
@@ -673,8 +697,11 @@
       <c r="F11">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>145</v>
       </c>
@@ -694,8 +721,11 @@
       <c r="F12">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>144</v>
       </c>
@@ -715,8 +745,11 @@
       <c r="F13">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>143</v>
       </c>
@@ -736,8 +769,11 @@
       <c r="F14">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>142</v>
       </c>
@@ -757,8 +793,11 @@
       <c r="F15">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -778,8 +817,11 @@
       <c r="F16">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>139</v>
       </c>
@@ -799,8 +841,11 @@
       <c r="F17" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>146</v>
       </c>
@@ -819,8 +864,11 @@
       <c r="F18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>146</v>
       </c>
@@ -840,8 +888,11 @@
       <c r="F19">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>144</v>
       </c>
@@ -861,8 +912,11 @@
       <c r="F20">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>142</v>
       </c>
@@ -882,8 +936,11 @@
       <c r="F21">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>142</v>
       </c>
@@ -903,8 +960,11 @@
       <c r="F22">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>141</v>
       </c>
@@ -924,8 +984,11 @@
       <c r="F23">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>141</v>
       </c>
@@ -945,8 +1008,11 @@
       <c r="F24">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>140</v>
       </c>
@@ -966,8 +1032,11 @@
       <c r="F25" s="3">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>148</v>
       </c>
@@ -987,8 +1056,11 @@
       <c r="F26">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>148</v>
       </c>
@@ -1008,8 +1080,11 @@
       <c r="F27">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>147</v>
       </c>
@@ -1029,8 +1104,11 @@
       <c r="F28">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>147</v>
       </c>
@@ -1050,8 +1128,11 @@
       <c r="F29">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>146</v>
       </c>
@@ -1071,8 +1152,11 @@
       <c r="F30">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>145</v>
       </c>
@@ -1092,8 +1176,11 @@
       <c r="F31">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>145</v>
       </c>
@@ -1113,8 +1200,11 @@
       <c r="F32">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>144</v>
       </c>
@@ -1134,8 +1224,11 @@
       <c r="F33" s="3">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>151</v>
       </c>
@@ -1155,8 +1248,11 @@
       <c r="F34">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>151</v>
       </c>
@@ -1176,8 +1272,11 @@
       <c r="F35">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>149</v>
       </c>
@@ -1197,8 +1296,11 @@
       <c r="F36">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -1218,8 +1320,11 @@
       <c r="F37">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>148</v>
       </c>
@@ -1239,8 +1344,11 @@
       <c r="F38">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>148</v>
       </c>
@@ -1260,8 +1368,11 @@
       <c r="F39">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>147</v>
       </c>
@@ -1281,8 +1392,11 @@
       <c r="F40">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>146</v>
       </c>
@@ -1301,6 +1415,9 @@
       </c>
       <c r="F41">
         <v>6.35</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1313,12 +1430,12 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>155</v>
       </c>
@@ -1365,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>154</v>
       </c>
@@ -1385,8 +1502,11 @@
       <c r="F3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>154</v>
       </c>
@@ -1406,8 +1526,11 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>153</v>
       </c>
@@ -1427,8 +1550,11 @@
       <c r="F5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>153</v>
       </c>
@@ -1448,8 +1574,11 @@
       <c r="F6">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>152</v>
       </c>
@@ -1469,8 +1598,11 @@
       <c r="F7">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>151</v>
       </c>
@@ -1490,8 +1622,11 @@
       <c r="F8">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>150</v>
       </c>
@@ -1511,8 +1646,11 @@
       <c r="F9" s="3">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>153</v>
       </c>
@@ -1532,8 +1670,11 @@
       <c r="F10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>152</v>
       </c>
@@ -1553,8 +1694,11 @@
       <c r="F11">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>151</v>
       </c>
@@ -1574,8 +1718,11 @@
       <c r="F12">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>148</v>
       </c>
@@ -1595,8 +1742,11 @@
       <c r="F13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>148</v>
       </c>
@@ -1616,8 +1766,11 @@
       <c r="F14">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>147</v>
       </c>
@@ -1637,8 +1790,11 @@
       <c r="F15">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>147</v>
       </c>
@@ -1658,8 +1814,11 @@
       <c r="F16">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>146</v>
       </c>
@@ -1679,8 +1838,11 @@
       <c r="F17" s="3">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>161</v>
       </c>
@@ -1700,8 +1862,11 @@
       <c r="F18">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>160</v>
       </c>
@@ -1721,8 +1886,11 @@
       <c r="F19">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>160</v>
       </c>
@@ -1742,8 +1910,11 @@
       <c r="F20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>159</v>
       </c>
@@ -1763,8 +1934,11 @@
       <c r="F21">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>159</v>
       </c>
@@ -1784,8 +1958,11 @@
       <c r="F22">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>159</v>
       </c>
@@ -1805,8 +1982,11 @@
       <c r="F23">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>158</v>
       </c>
@@ -1826,8 +2006,11 @@
       <c r="F24">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>158</v>
       </c>
@@ -1847,8 +2030,11 @@
       <c r="F25" s="3">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>152</v>
       </c>
@@ -1868,8 +2054,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>152</v>
       </c>
@@ -1889,8 +2078,11 @@
       <c r="F27">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>151</v>
       </c>
@@ -1910,8 +2102,11 @@
       <c r="F28">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>151</v>
       </c>
@@ -1931,8 +2126,11 @@
       <c r="F29">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>150</v>
       </c>
@@ -1952,8 +2150,11 @@
       <c r="F30">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>150</v>
       </c>
@@ -1973,8 +2174,11 @@
       <c r="F31">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>150</v>
       </c>
@@ -1994,8 +2198,11 @@
       <c r="F32">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>150</v>
       </c>
@@ -2015,8 +2222,11 @@
       <c r="F33" s="3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>153</v>
       </c>
@@ -2036,8 +2246,11 @@
       <c r="F34">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>152</v>
       </c>
@@ -2057,8 +2270,11 @@
       <c r="F35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>152</v>
       </c>
@@ -2078,8 +2294,11 @@
       <c r="F36">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>151</v>
       </c>
@@ -2099,8 +2318,11 @@
       <c r="F37">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -2120,8 +2342,11 @@
       <c r="F38">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>151</v>
       </c>
@@ -2141,8 +2366,11 @@
       <c r="F39">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>151</v>
       </c>
@@ -2162,8 +2390,11 @@
       <c r="F40">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>150</v>
       </c>
@@ -2182,6 +2413,9 @@
       </c>
       <c r="F41">
         <v>3.57</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2194,12 +2428,12 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>146</v>
       </c>
@@ -2230,7 +2464,7 @@
         <v>146</v>
       </c>
       <c r="C2">
-        <f>B2-A2</f>
+        <f t="shared" ref="C2:C41" si="0">B2-A2</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
@@ -2246,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>158</v>
       </c>
@@ -2254,7 +2488,7 @@
         <v>158</v>
       </c>
       <c r="C3">
-        <f>B3-A3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="2">
@@ -2266,8 +2500,11 @@
       <c r="F3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>158</v>
       </c>
@@ -2275,7 +2512,7 @@
         <v>158</v>
       </c>
       <c r="C4">
-        <f>B4-A4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
@@ -2287,8 +2524,11 @@
       <c r="F4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>158</v>
       </c>
@@ -2296,7 +2536,7 @@
         <v>158</v>
       </c>
       <c r="C5">
-        <f>B5-A5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="2">
@@ -2308,8 +2548,11 @@
       <c r="F5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>157</v>
       </c>
@@ -2317,7 +2560,7 @@
         <v>157</v>
       </c>
       <c r="C6">
-        <f>B6-A6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="2">
@@ -2329,8 +2572,11 @@
       <c r="F6">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>157</v>
       </c>
@@ -2338,7 +2584,7 @@
         <v>157</v>
       </c>
       <c r="C7">
-        <f>B7-A7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="2">
@@ -2350,8 +2596,11 @@
       <c r="F7">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>156</v>
       </c>
@@ -2359,7 +2608,7 @@
         <v>156</v>
       </c>
       <c r="C8">
-        <f>B8-A8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="2">
@@ -2371,8 +2620,11 @@
       <c r="F8">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>155</v>
       </c>
@@ -2380,7 +2632,7 @@
         <v>155</v>
       </c>
       <c r="C9" s="3">
-        <f>B9-A9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="4">
@@ -2392,8 +2644,11 @@
       <c r="F9" s="3">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>147</v>
       </c>
@@ -2401,7 +2656,7 @@
         <v>155</v>
       </c>
       <c r="C10">
-        <f>B10-A10</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="2">
@@ -2413,8 +2668,11 @@
       <c r="F10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>152</v>
       </c>
@@ -2422,7 +2680,7 @@
         <v>161</v>
       </c>
       <c r="C11">
-        <f>B11-A11</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="2">
@@ -2434,8 +2692,11 @@
       <c r="F11">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>150</v>
       </c>
@@ -2443,7 +2704,7 @@
         <v>159</v>
       </c>
       <c r="C12">
-        <f>B12-A12</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D12" s="2">
@@ -2455,8 +2716,11 @@
       <c r="F12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>150</v>
       </c>
@@ -2464,7 +2728,7 @@
         <v>159</v>
       </c>
       <c r="C13">
-        <f>B13-A13</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" s="2">
@@ -2476,8 +2740,11 @@
       <c r="F13">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>150</v>
       </c>
@@ -2485,7 +2752,7 @@
         <v>159</v>
       </c>
       <c r="C14">
-        <f>B14-A14</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D14" s="2">
@@ -2497,8 +2764,11 @@
       <c r="F14">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>149</v>
       </c>
@@ -2506,7 +2776,7 @@
         <v>157</v>
       </c>
       <c r="C15">
-        <f>B15-A15</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D15" s="2">
@@ -2518,8 +2788,11 @@
       <c r="F15">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>149</v>
       </c>
@@ -2527,7 +2800,7 @@
         <v>157</v>
       </c>
       <c r="C16">
-        <f>B16-A16</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D16" s="2">
@@ -2539,8 +2812,11 @@
       <c r="F16">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>148</v>
       </c>
@@ -2548,7 +2824,7 @@
         <v>156</v>
       </c>
       <c r="C17" s="3">
-        <f>B17-A17</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D17" s="4">
@@ -2560,8 +2836,11 @@
       <c r="F17" s="3">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>148</v>
       </c>
@@ -2569,7 +2848,7 @@
         <v>163</v>
       </c>
       <c r="C18">
-        <f>B18-A18</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D18" s="2">
@@ -2581,8 +2860,11 @@
       <c r="F18">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>148</v>
       </c>
@@ -2590,7 +2872,7 @@
         <v>163</v>
       </c>
       <c r="C19">
-        <f>B19-A19</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D19" s="2">
@@ -2602,8 +2884,11 @@
       <c r="F19">
         <v>0.32900000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>148</v>
       </c>
@@ -2611,7 +2896,7 @@
         <v>163</v>
       </c>
       <c r="C20">
-        <f>B20-A20</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D20" s="2">
@@ -2623,8 +2908,11 @@
       <c r="F20">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>147</v>
       </c>
@@ -2632,7 +2920,7 @@
         <v>162</v>
       </c>
       <c r="C21">
-        <f>B21-A21</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D21" s="2">
@@ -2644,8 +2932,11 @@
       <c r="F21">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>147</v>
       </c>
@@ -2653,7 +2944,7 @@
         <v>162</v>
       </c>
       <c r="C22">
-        <f>B22-A22</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D22" s="2">
@@ -2665,8 +2956,11 @@
       <c r="F22">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>147</v>
       </c>
@@ -2674,7 +2968,7 @@
         <v>161</v>
       </c>
       <c r="C23">
-        <f>B23-A23</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D23" s="2">
@@ -2686,8 +2980,11 @@
       <c r="F23">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>147</v>
       </c>
@@ -2695,7 +2992,7 @@
         <v>161</v>
       </c>
       <c r="C24">
-        <f>B24-A24</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D24" s="2">
@@ -2707,8 +3004,11 @@
       <c r="F24">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>147</v>
       </c>
@@ -2716,7 +3016,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="3">
-        <f>B25-A25</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D25" s="4">
@@ -2728,8 +3028,11 @@
       <c r="F25" s="3">
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>147</v>
       </c>
@@ -2737,7 +3040,7 @@
         <v>152</v>
       </c>
       <c r="C26">
-        <f>B26-A26</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D26" s="2">
@@ -2749,8 +3052,11 @@
       <c r="F26">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>147</v>
       </c>
@@ -2758,7 +3064,7 @@
         <v>152</v>
       </c>
       <c r="C27">
-        <f>B27-A27</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D27" s="2">
@@ -2770,8 +3076,11 @@
       <c r="F27">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>146</v>
       </c>
@@ -2779,7 +3088,7 @@
         <v>151</v>
       </c>
       <c r="C28">
-        <f>B28-A28</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D28" s="2">
@@ -2791,8 +3100,11 @@
       <c r="F28">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>146</v>
       </c>
@@ -2800,7 +3112,7 @@
         <v>151</v>
       </c>
       <c r="C29">
-        <f>B29-A29</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D29" s="2">
@@ -2812,8 +3124,11 @@
       <c r="F29">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>146</v>
       </c>
@@ -2821,7 +3136,7 @@
         <v>151</v>
       </c>
       <c r="C30">
-        <f>B30-A30</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D30" s="2">
@@ -2833,8 +3148,11 @@
       <c r="F30">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>146</v>
       </c>
@@ -2842,7 +3160,7 @@
         <v>150</v>
       </c>
       <c r="C31">
-        <f>B31-A31</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D31" s="2">
@@ -2854,8 +3172,11 @@
       <c r="F31">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>145</v>
       </c>
@@ -2863,7 +3184,7 @@
         <v>149</v>
       </c>
       <c r="C32" s="5">
-        <f>B32-A32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D32" s="6">
@@ -2875,8 +3196,11 @@
       <c r="F32" s="5">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>145</v>
       </c>
@@ -2884,7 +3208,7 @@
         <v>149</v>
       </c>
       <c r="C33" s="3">
-        <f>B33-A33</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D33" s="4">
@@ -2896,8 +3220,11 @@
       <c r="F33" s="3">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>150</v>
       </c>
@@ -2905,7 +3232,7 @@
         <v>162</v>
       </c>
       <c r="C34">
-        <f>B34-A34</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D34" s="2">
@@ -2917,8 +3244,11 @@
       <c r="F34">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>151</v>
       </c>
@@ -2926,7 +3256,7 @@
         <v>162</v>
       </c>
       <c r="C35">
-        <f>B35-A35</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D35" s="2">
@@ -2938,8 +3268,11 @@
       <c r="F35">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>149</v>
       </c>
@@ -2947,7 +3280,7 @@
         <v>161</v>
       </c>
       <c r="C36">
-        <f>B36-A36</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D36" s="2">
@@ -2959,8 +3292,11 @@
       <c r="F36">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>148</v>
       </c>
@@ -2968,7 +3304,7 @@
         <v>161</v>
       </c>
       <c r="C37">
-        <f>B37-A37</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D37" s="2">
@@ -2980,8 +3316,11 @@
       <c r="F37">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>148</v>
       </c>
@@ -2989,7 +3328,7 @@
         <v>161</v>
       </c>
       <c r="C38">
-        <f>B38-A38</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D38" s="2">
@@ -3001,8 +3340,11 @@
       <c r="F38">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>148</v>
       </c>
@@ -3010,7 +3352,7 @@
         <v>160</v>
       </c>
       <c r="C39">
-        <f>B39-A39</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D39" s="2">
@@ -3022,8 +3364,11 @@
       <c r="F39">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>148</v>
       </c>
@@ -3031,7 +3376,7 @@
         <v>160</v>
       </c>
       <c r="C40">
-        <f>B40-A40</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D40" s="2">
@@ -3043,8 +3388,11 @@
       <c r="F40">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>148</v>
       </c>
@@ -3052,7 +3400,7 @@
         <v>160</v>
       </c>
       <c r="C41">
-        <f>B41-A41</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D41" s="2">
@@ -3063,6 +3411,9 @@
       </c>
       <c r="F41">
         <v>4.2699999999999996</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3071,16 +3422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFC3F54-E0FE-41E4-9FF9-4173FF765D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B19FF-E056-4871-A13A-2C7E354ADB89}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3103,847 +3454,964 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C2">
-        <f>B2-A2</f>
-        <v>0</v>
+        <f t="shared" ref="C2:C41" si="0">B2-A2</f>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.2999999999999999E-2</v>
+        <v>0.186</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C3">
-        <f>B3-A3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.0999999999999999E-2</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.54</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B4">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C41" si="0">B4-A4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.157</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B5">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>8.9999999999999993E-3</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B6">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>8.9999999999999993E-3</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F6">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.54</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>50</v>
       </c>
       <c r="E7">
-        <v>7.0000000000000001E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F7">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.46</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>108</v>
-      </c>
-      <c r="B9" s="3">
-        <v>108</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F9">
+        <v>2.81</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C10">
-        <f>B10-A10</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.5000000000000006E-2</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.24</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.5999999999999993E-2</v>
+        <v>0.217</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B12">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>8.4000000000000005E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F12">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>8.2000000000000003E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F13">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.28</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
       <c r="E14">
-        <v>7.4999999999999997E-2</v>
+        <v>0.108</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.63</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>0.04</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>100</v>
       </c>
       <c r="E16">
-        <v>2.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F16">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>106</v>
-      </c>
-      <c r="B17" s="3">
-        <v>113</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D17" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>151</v>
+      </c>
+      <c r="B17">
+        <v>163</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F17">
+        <v>2.87</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B18">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C18">
-        <f>B18-A18</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.16800000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.38</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.16200000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="F19">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.61</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0.14899999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="F20">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.03</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B21">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
       </c>
       <c r="E21">
-        <v>0.13600000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F21">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.26</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="F22">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.67</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23">
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F23">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.59</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2">
         <v>100</v>
       </c>
       <c r="E24">
-        <v>2.5999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F24">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>110</v>
-      </c>
-      <c r="B25" s="3">
-        <v>123</v>
-      </c>
-      <c r="C25" s="3">
-        <f>B25-A25</f>
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
+        <v>2.78</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>149</v>
+      </c>
+      <c r="B25">
+        <v>164</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
         <v>200</v>
       </c>
-      <c r="E25" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F25">
+        <v>2.94</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C26">
-        <f>B26-A26</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>5.8000000000000003E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>5.6000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F27">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>5.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>5.0999999999999997E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F29">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
       </c>
       <c r="E30">
-        <v>4.1000000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F30">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>50</v>
       </c>
       <c r="E31">
-        <v>3.1E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F31">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>100</v>
       </c>
       <c r="E32">
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F32">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>107</v>
-      </c>
-      <c r="B33" s="3">
-        <v>111</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D33" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>143</v>
+      </c>
+      <c r="B33">
+        <v>143</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.44</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C34">
-        <f>B34-A34</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.14899999999999999</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F34">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.14299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F35">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>0.13600000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F36">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
       </c>
       <c r="E37">
-        <v>0.122</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F37">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.12</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
       </c>
       <c r="E38">
-        <v>0.104</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F38">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>4.5999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F39">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.98</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <v>100</v>
       </c>
       <c r="E40">
-        <v>2.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F40">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.43</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2">
         <v>200</v>
       </c>
       <c r="E41">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F41">
-        <v>4.42</v>
+        <v>1.81</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3952,16 +4420,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D72D2FA-A255-4C78-A052-99B87F29782E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFC3F54-E0FE-41E4-9FF9-4173FF765D85}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3984,12 +4452,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="B2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <f>B2-A2</f>
@@ -3999,21 +4467,21 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="B3">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <f>B3-A3</f>
@@ -4028,139 +4496,160 @@
       <c r="F3">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C4">
-        <f>B4-A4</f>
+        <f t="shared" ref="C4:C41" si="0">B4-A4</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B5">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C5">
-        <f>B5-A5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1.2999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B6">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C6">
-        <f>B6-A6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <f>B7-A7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>50</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F7">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.61</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C8">
-        <f>B8-A8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F8">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.06</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
-        <f>B9-A9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="4">
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F9" s="3">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.71</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C10">
         <f>B10-A10</f>
@@ -4170,126 +4659,144 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.8999999999999996E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C11">
-        <f>B11-A11</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.38</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>107</v>
+      </c>
+      <c r="B13">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F11">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>181</v>
-      </c>
-      <c r="B12">
-        <v>188</v>
-      </c>
-      <c r="C12">
-        <f>B12-A12</f>
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0.08</v>
-      </c>
-      <c r="F12">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>181</v>
-      </c>
-      <c r="B13">
-        <v>188</v>
-      </c>
-      <c r="C13">
-        <f>B13-A13</f>
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>7.8E-2</v>
-      </c>
       <c r="F13">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B14">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C14">
-        <f>B14-A14</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
       <c r="E14">
-        <v>7.1999999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F14">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <f>B15-A15</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D15" s="2">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>3.9E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3.04</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B16">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="C16">
-        <f>B16-A16</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D16" s="2">
@@ -4299,145 +4806,166 @@
         <v>2.4E-2</v>
       </c>
       <c r="F16">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.73</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3">
-        <f>B17-A17</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D17" s="4">
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B18">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <f>B18-A18</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.16</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F18">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B19">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C19">
-        <f>B19-A19</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.154</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B20">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C20">
-        <f>B20-A20</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.74</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F20">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>179</v>
-      </c>
-      <c r="B21">
-        <v>197</v>
-      </c>
-      <c r="C21">
-        <f>B21-A21</f>
-        <v>18</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>0.125</v>
-      </c>
       <c r="F21">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B22">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C22">
-        <f>B22-A22</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>0.105</v>
+        <v>0.112</v>
       </c>
       <c r="F22">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.71</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B23">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C23">
-        <f>B23-A23</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
@@ -4446,19 +4974,22 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F23">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.49</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="C24">
-        <f>B24-A24</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>100</v>
@@ -4467,19 +4998,22 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F24">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.07</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="C25" s="3">
         <f>B25-A25</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4">
         <v>200</v>
@@ -4488,183 +5022,210 @@
         <v>1.4E-2</v>
       </c>
       <c r="F25" s="3">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <f>B26-A26</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>3.7999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F26">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B27">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="C27">
-        <f>B27-A27</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>3.9E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F27">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B28">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C28">
-        <f>B28-A28</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>3.9E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F28">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B29">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C29">
-        <f>B29-A29</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>3.3000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F29">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B30">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C30">
-        <f>B30-A30</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
       </c>
       <c r="E30">
-        <v>3.1E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F30">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.74</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B31">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C31">
-        <f>B31-A31</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>50</v>
       </c>
       <c r="E31">
-        <v>2.1000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F31">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B32">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C32">
-        <f>B32-A32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>100</v>
       </c>
       <c r="E32">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F32">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.38</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3">
-        <f>B33-A33</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D33" s="4">
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F33" s="3">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.03</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="B34">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="C34">
         <f>B34-A34</f>
@@ -4674,157 +5235,181 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.13100000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F34">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="B35">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="C35">
-        <f>B35-A35</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.129</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F35">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.43</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="B36">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="C36">
-        <f>B36-A36</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>0.121</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F36">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="B37">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="C37">
-        <f>B37-A37</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
       </c>
       <c r="E37">
-        <v>0.112</v>
+        <v>0.122</v>
       </c>
       <c r="F37">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.03</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="B38">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C38">
-        <f>B38-A38</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
       </c>
       <c r="E38">
-        <v>9.6000000000000002E-2</v>
+        <v>0.104</v>
       </c>
       <c r="F38">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.57</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="B39">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C39">
-        <f>B39-A39</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>4.2999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F39">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.32</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="B40">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C40">
-        <f>B40-A40</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
         <v>100</v>
       </c>
       <c r="E40">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F40">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.94</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="C41">
-        <f>B41-A41</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D41" s="2">
         <v>200</v>
       </c>
       <c r="E41">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F41">
-        <v>4.3099999999999996</v>
+        <v>4.42</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4833,16 +5418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0B19FF-E056-4871-A13A-2C7E354ADB89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D72D2FA-A255-4C78-A052-99B87F29782E}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4865,847 +5450,964 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C41" si="0">B2-A2</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.186</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F2">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.17699999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.157</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B5">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>0.13900000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F5">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B6">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.10299999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F6">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B7">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>50</v>
       </c>
       <c r="E7">
-        <v>2.8000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.79</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B8">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>1.0999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F8">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>149</v>
-      </c>
-      <c r="B9">
-        <v>158</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>179</v>
+      </c>
+      <c r="B9" s="3">
+        <v>179</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>200</v>
       </c>
-      <c r="E9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F9">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B10">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.23400000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F10">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B11">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.217</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F11">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B12">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>0.17399999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="F12">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B13">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0.14799999999999999</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F13">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.61</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B14">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
       <c r="E14">
-        <v>0.108</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F14">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B15">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F15">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.94</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B16">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
         <v>100</v>
       </c>
       <c r="E16">
-        <v>1.0999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F16">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>151</v>
-      </c>
-      <c r="B17">
-        <v>163</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>181</v>
+      </c>
+      <c r="B17" s="3">
+        <v>188</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
         <v>200</v>
       </c>
-      <c r="E17">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F17">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.17</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B18">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.24199999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F18">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B19">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.22900000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="F19">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B20">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0.188</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F20">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.84</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B21">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
       </c>
       <c r="E21">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="F21">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B22">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>0.111</v>
+        <v>0.105</v>
       </c>
       <c r="F22">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.62</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B23">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2">
         <v>50</v>
       </c>
       <c r="E23">
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F23">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.35</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B24">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2">
         <v>100</v>
       </c>
       <c r="E24">
-        <v>1.0999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F24">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>149</v>
-      </c>
-      <c r="B25">
-        <v>164</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D25" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>179</v>
+      </c>
+      <c r="B25" s="3">
+        <v>196</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="4">
         <v>200</v>
       </c>
-      <c r="E25">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F25">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B26">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>8.9999999999999993E-3</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B27">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>8.0000000000000002E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B28">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>8.0000000000000002E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B29">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>8.0000000000000002E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B30">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
       </c>
       <c r="E30">
-        <v>6.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F30">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B31">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>50</v>
       </c>
       <c r="E31">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F31">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.08</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B32">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>100</v>
       </c>
       <c r="E32">
-        <v>5.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F32">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>143</v>
-      </c>
-      <c r="B33">
-        <v>143</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>178</v>
+      </c>
+      <c r="B33" s="3">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
         <v>200</v>
       </c>
-      <c r="E33">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F33">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B34">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>8.9999999999999993E-3</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B35">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1.2E-2</v>
+        <v>0.129</v>
       </c>
       <c r="F35">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.32</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B36">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>1.2E-2</v>
+        <v>0.121</v>
       </c>
       <c r="F36">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.62</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B37">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
       </c>
       <c r="E37">
-        <v>1.4E-2</v>
+        <v>0.112</v>
       </c>
       <c r="F37">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.93</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B38">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
       </c>
       <c r="E38">
-        <v>1.4E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F38">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.46</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B39">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>1.0999999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.21</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B40">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2">
         <v>100</v>
       </c>
       <c r="E40">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F40">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.83</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B41">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2">
         <v>200</v>
       </c>
       <c r="E41">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F41">
-        <v>1.81</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5717,13 +6419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5789B861-2DBE-4B74-BCF7-C858D0154E91}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +6448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>110</v>
       </c>
@@ -5770,7 +6472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -5790,8 +6492,11 @@
       <c r="F3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110</v>
       </c>
@@ -5811,8 +6516,11 @@
       <c r="F4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>109</v>
       </c>
@@ -5832,8 +6540,11 @@
       <c r="F5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>109</v>
       </c>
@@ -5853,8 +6564,11 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>109</v>
       </c>
@@ -5874,8 +6588,11 @@
       <c r="F7">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>108</v>
       </c>
@@ -5895,8 +6612,11 @@
       <c r="F8">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>107</v>
       </c>
@@ -5916,8 +6636,11 @@
       <c r="F9">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>114</v>
       </c>
@@ -5937,8 +6660,11 @@
       <c r="F10">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>114</v>
       </c>
@@ -5958,8 +6684,11 @@
       <c r="F11">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>113</v>
       </c>
@@ -5979,8 +6708,11 @@
       <c r="F12">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>113</v>
       </c>
@@ -6000,8 +6732,11 @@
       <c r="F13">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>112</v>
       </c>
@@ -6021,8 +6756,11 @@
       <c r="F14">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>112</v>
       </c>
@@ -6042,8 +6780,11 @@
       <c r="F15">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>112</v>
       </c>
@@ -6063,8 +6804,11 @@
       <c r="F16">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>112</v>
       </c>
@@ -6084,8 +6828,11 @@
       <c r="F17">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
@@ -6105,8 +6852,11 @@
       <c r="F18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>110</v>
       </c>
@@ -6126,8 +6876,11 @@
       <c r="F19">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>110</v>
       </c>
@@ -6147,8 +6900,11 @@
       <c r="F20">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>110</v>
       </c>
@@ -6168,8 +6924,11 @@
       <c r="F21">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>110</v>
       </c>
@@ -6189,8 +6948,11 @@
       <c r="F22">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>109</v>
       </c>
@@ -6210,8 +6972,11 @@
       <c r="F23">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>109</v>
       </c>
@@ -6231,8 +6996,11 @@
       <c r="F24">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>109</v>
       </c>
@@ -6252,8 +7020,11 @@
       <c r="F25">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>109</v>
       </c>
@@ -6273,8 +7044,11 @@
       <c r="F26">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>108</v>
       </c>
@@ -6294,8 +7068,11 @@
       <c r="F27">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>108</v>
       </c>
@@ -6315,8 +7092,11 @@
       <c r="F28">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>108</v>
       </c>
@@ -6336,8 +7116,11 @@
       <c r="F29">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>108</v>
       </c>
@@ -6357,8 +7140,11 @@
       <c r="F30">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>108</v>
       </c>
@@ -6378,8 +7164,11 @@
       <c r="F31">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>107</v>
       </c>
@@ -6399,8 +7188,11 @@
       <c r="F32">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>107</v>
       </c>
@@ -6420,8 +7212,11 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>107</v>
       </c>
@@ -6441,8 +7236,11 @@
       <c r="F34">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>106</v>
       </c>
@@ -6462,8 +7260,11 @@
       <c r="F35">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>106</v>
       </c>
@@ -6483,8 +7284,11 @@
       <c r="F36">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>106</v>
       </c>
@@ -6504,8 +7308,11 @@
       <c r="F37">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>106</v>
       </c>
@@ -6525,8 +7332,11 @@
       <c r="F38">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>106</v>
       </c>
@@ -6546,8 +7356,11 @@
       <c r="F39">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>106</v>
       </c>
@@ -6567,8 +7380,11 @@
       <c r="F40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>105</v>
       </c>
@@ -6587,6 +7403,9 @@
       </c>
       <c r="F41">
         <v>3.16</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
